--- a/doc/pfc/tabelas/tabelas.xlsx
+++ b/doc/pfc/tabelas/tabelas.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BD5AA9-B82F-4887-A119-F17F4E12E53B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Altura (m)</t>
   </si>
@@ -33,15 +42,22 @@
   <si>
     <t>Ordem</t>
   </si>
+  <si>
+    <t>X (m)</t>
+  </si>
+  <si>
+    <t>Y (m)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="190" formatCode="#,##0.0000000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.0000000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +87,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -80,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -88,30 +118,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="190" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -133,7 +186,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -171,7 +224,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -206,6 +259,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -241,9 +311,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,413 +503,650 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F16" sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
         <v>-27.5891285475</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>-48.540591562000003</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="D2" s="7">
+        <v>4.9097863349499997</v>
+      </c>
+      <c r="E2" s="8">
+        <v>-6</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>9.7435726196899992</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1.04691556012</v>
+      </c>
+      <c r="K2" s="7">
+        <v>4.9097863349499997</v>
+      </c>
+      <c r="L2" s="8">
+        <v>-6</v>
+      </c>
+      <c r="M2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
         <v>-27.589063765799999</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>-48.540526731100002</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="D3" s="7">
+        <v>4.8350376973199998</v>
+      </c>
+      <c r="E3" s="8">
+        <v>-99</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>16.289295699499998</v>
+      </c>
+      <c r="J3" s="7">
+        <v>8.0948774474699992</v>
+      </c>
+      <c r="K3" s="7">
+        <v>4.8350376973199998</v>
+      </c>
+      <c r="L3" s="8">
+        <v>-99</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>-27.5889787869</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>-48.540524163400001</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="D4" s="7">
+        <v>4.9091651120800002</v>
+      </c>
+      <c r="E4" s="8">
+        <v>-94</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>16.730213363099999</v>
+      </c>
+      <c r="J4" s="7">
+        <v>17.507927754899999</v>
+      </c>
+      <c r="K4" s="7">
+        <v>4.9091651120800002</v>
+      </c>
+      <c r="L4" s="8">
+        <v>-94</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>-27.588993615500002</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>-48.540570566600003</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="D5" s="7">
+        <v>4.9090756421400004</v>
+      </c>
+      <c r="E5" s="8">
+        <v>-88</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>12.1154683235</v>
+      </c>
+      <c r="J5" s="7">
+        <v>15.9556058744</v>
+      </c>
+      <c r="K5" s="7">
+        <v>4.9090756421400004</v>
+      </c>
+      <c r="L5" s="8">
+        <v>-88</v>
+      </c>
+      <c r="M5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>-27.5889546266</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>-48.540571893200003</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="D6" s="7">
+        <v>4.88645214765</v>
+      </c>
+      <c r="E6" s="8">
+        <v>-84</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="5">
+        <v>5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>12.070409959199999</v>
+      </c>
+      <c r="J6" s="7">
+        <v>20.279135590700001</v>
+      </c>
+      <c r="K6" s="7">
+        <v>4.88645214765</v>
+      </c>
+      <c r="L6" s="8">
+        <v>-84</v>
+      </c>
+      <c r="M6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>-27.588937716299998</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6">
         <v>-48.540526813600003</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="D7" s="7">
+        <v>4.8451830134599998</v>
+      </c>
+      <c r="E7" s="8">
+        <v>-105</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="5">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>16.5591158931</v>
+      </c>
+      <c r="J7" s="7">
+        <v>22.0647493321</v>
+      </c>
+      <c r="K7" s="7">
+        <v>4.8451830134599998</v>
+      </c>
+      <c r="L7" s="8">
+        <v>-105</v>
+      </c>
+      <c r="M7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>-27.5888153177</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>-48.540556324800001</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="D8" s="7">
+        <v>4.8859118589300001</v>
+      </c>
+      <c r="E8" s="8">
+        <v>-147</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="5">
+        <v>7</v>
+      </c>
+      <c r="I8" s="7">
+        <v>13.9148908843</v>
+      </c>
+      <c r="J8" s="7">
+        <v>35.687928619099999</v>
+      </c>
+      <c r="K8" s="7">
+        <v>4.8859118589300001</v>
+      </c>
+      <c r="L8" s="8">
+        <v>-147</v>
+      </c>
+      <c r="M8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <v>-27.5888256858</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="6">
         <v>-48.540622227599997</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="D9" s="7">
+        <v>4.8804213457200003</v>
+      </c>
+      <c r="E9" s="8">
+        <v>174</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="5">
+        <v>8</v>
+      </c>
+      <c r="I9" s="7">
+        <v>7.3843844576900004</v>
+      </c>
+      <c r="J9" s="7">
+        <v>34.668199913000002</v>
+      </c>
+      <c r="K9" s="7">
+        <v>4.8804213457200003</v>
+      </c>
+      <c r="L9" s="8">
+        <v>174</v>
+      </c>
+      <c r="M9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>-27.588866662299999</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>-48.540605576499999</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="D10" s="7">
+        <v>4.9092439821899996</v>
+      </c>
+      <c r="E10" s="8">
+        <v>178</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="5">
+        <v>9</v>
+      </c>
+      <c r="I10" s="7">
+        <v>8.9382105882899996</v>
+      </c>
+      <c r="J10" s="7">
+        <v>30.094243071099999</v>
+      </c>
+      <c r="K10" s="7">
+        <v>4.9092439821899996</v>
+      </c>
+      <c r="L10" s="8">
+        <v>178</v>
+      </c>
+      <c r="M10" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>-27.588811961400001</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>-48.540689047800001</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="D11" s="7">
+        <v>5.5820955938700001</v>
+      </c>
+      <c r="E11" s="8">
+        <v>112</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="5">
+        <v>10</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.81637380362699996</v>
+      </c>
+      <c r="J11" s="7">
+        <v>36.320544414300002</v>
+      </c>
+      <c r="K11" s="7">
+        <v>5.5820955938700001</v>
+      </c>
+      <c r="L11" s="8">
+        <v>112</v>
+      </c>
+      <c r="M11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="6">
         <v>-27.588923083099999</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <v>-48.540691947100001</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="D12" s="7">
+        <v>5.5678876001999997</v>
+      </c>
+      <c r="E12" s="8">
+        <v>109</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="5">
+        <v>11</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.28515453160100002</v>
+      </c>
+      <c r="J12" s="7">
+        <v>24.010959266499999</v>
+      </c>
+      <c r="K12" s="7">
+        <v>5.5678876001999997</v>
+      </c>
+      <c r="L12" s="8">
+        <v>109</v>
+      </c>
+      <c r="M12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="6">
         <v>-27.589000591600001</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <v>-48.540696712699997</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="D13" s="7">
+        <v>6.30228757208</v>
+      </c>
+      <c r="E13" s="8">
+        <v>83</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="5">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7">
+        <v>-0.35616400299899997</v>
+      </c>
+      <c r="J13" s="7">
+        <v>15.430221946</v>
+      </c>
+      <c r="K13" s="7">
+        <v>6.30228757208</v>
+      </c>
+      <c r="L13" s="8">
+        <v>83</v>
+      </c>
+      <c r="M13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="6">
         <v>-27.588994570899999</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="6">
         <v>-48.540655984799997</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="2">
-        <v>2</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="D14" s="7">
+        <v>6.2795489504399997</v>
+      </c>
+      <c r="E14" s="8">
+        <v>99</v>
+      </c>
+      <c r="F14" s="9">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="5">
+        <v>13</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3.6787868537700001</v>
+      </c>
+      <c r="J14" s="7">
+        <v>16.017553372199998</v>
+      </c>
+      <c r="K14" s="7">
+        <v>6.2795489504399997</v>
+      </c>
+      <c r="L14" s="8">
+        <v>99</v>
+      </c>
+      <c r="M14" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="6">
         <v>-27.588934549299999</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="6">
         <v>-48.540648007400002</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="2">
-        <v>2</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="D15" s="7">
+        <v>6.3019640360500002</v>
+      </c>
+      <c r="E15" s="8">
+        <v>124</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="5">
+        <v>14</v>
+      </c>
+      <c r="I15" s="7">
+        <v>4.5988124133400001</v>
+      </c>
+      <c r="J15" s="7">
+        <v>22.653885826900002</v>
+      </c>
+      <c r="K15" s="7">
+        <v>6.3019640360500002</v>
+      </c>
+      <c r="L15" s="8">
+        <v>124</v>
+      </c>
+      <c r="M15" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="19.8" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="6">
         <v>-27.589205425399999</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="6">
         <v>-48.540644720899998</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="D16" s="7">
+        <v>3.3708162243099999</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="5">
+        <v>15</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4.32613936026</v>
+      </c>
+      <c r="J16" s="7">
+        <v>-7.3731565058599999</v>
+      </c>
+      <c r="K16" s="7">
+        <v>3.3708162243099999</v>
+      </c>
+      <c r="L16" s="8">
+        <v>4</v>
+      </c>
+      <c r="M16" s="9">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
